--- a/xlsx/w1.xlsx
+++ b/xlsx/w1.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="190">
   <si>
     <t>Bug编号</t>
   </si>
@@ -221,10 +221,10 @@
     <t>2022-02-18 16:47:58</t>
   </si>
   <si>
+    <t>2022-02-18 16:47:37</t>
+  </si>
+  <si>
     <t>李海</t>
-  </si>
-  <si>
-    <t>2022-02-18 16:47:37</t>
   </si>
   <si>
     <t>影响范围代码未清除完</t>
@@ -251,13 +251,13 @@
     <t>2022-02-17 08:51:01</t>
   </si>
   <si>
+    <t>开发服(#62)</t>
+  </si>
+  <si>
+    <t>2022-02-17 08:50:37</t>
+  </si>
+  <si>
     <t>盛文浩</t>
-  </si>
-  <si>
-    <t>开发服(#62)</t>
-  </si>
-  <si>
-    <t>2022-02-17 08:50:37</t>
   </si>
   <si>
     <t>首页事件查询、上报、跟进中的查询需要单独提出service并优化代码</t>
@@ -621,10 +621,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -648,25 +648,23 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -678,7 +676,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -709,14 +737,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -724,7 +745,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -748,21 +776,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -770,31 +784,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -825,7 +825,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -837,13 +837,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -855,7 +867,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -867,7 +933,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -879,55 +993,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -939,73 +1005,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1034,41 +1034,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1088,11 +1058,46 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1112,22 +1117,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1137,10 +1137,10 @@
     <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1149,133 +1149,133 @@
     <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1719,25 +1719,32 @@
   <dimension ref="A1:AL21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="9" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="9" ySplit="1" topLeftCell="J3" activePane="bottomRight" state="frozenSplit"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="R5" sqref="R5"/>
+      <selection pane="bottomRight" activeCell="AA5" sqref="AA5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
     <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="4" max="4" width="26" customWidth="1"/>
-    <col min="5" max="5" width="21.1666666666667" customWidth="1"/>
+    <col min="4" max="4" width="8.83333333333333" customWidth="1"/>
+    <col min="5" max="5" width="2.5" customWidth="1"/>
     <col min="6" max="7" width="26" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="9" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="26" customWidth="1"/>
-    <col min="10" max="10" width="34.3111111111111" customWidth="1"/>
-    <col min="16" max="16" width="41" customWidth="1"/>
+    <col min="9" max="9" width="9.83333333333333" customWidth="1"/>
+    <col min="10" max="10" width="1.83333333333333" customWidth="1"/>
+    <col min="12" max="12" width="4.16666666666667" customWidth="1"/>
+    <col min="16" max="16" width="8.33333333333333" customWidth="1"/>
     <col min="18" max="18" width="12" customWidth="1"/>
-    <col min="23" max="23" width="12" customWidth="1"/>
+    <col min="19" max="19" width="5" customWidth="1"/>
+    <col min="20" max="20" width="9" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="5.33333333333333" customWidth="1"/>
+    <col min="22" max="22" width="9" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="4.5" customWidth="1"/>
+    <col min="24" max="24" width="9" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="13.3333333333333" customWidth="1"/>
     <col min="26" max="26" width="12" customWidth="1"/>
     <col min="30" max="30" width="12" customWidth="1"/>
     <col min="32" max="32" width="12" customWidth="1"/>
@@ -1860,7 +1867,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" ht="24" spans="1:38">
+    <row r="2" ht="72" spans="1:38">
       <c r="A2" s="2">
         <v>1271</v>
       </c>
@@ -1954,7 +1961,7 @@
       </c>
       <c r="AL2" s="2"/>
     </row>
-    <row r="3" ht="60" spans="1:38">
+    <row r="3" ht="162" spans="1:38">
       <c r="A3" s="3">
         <v>1270</v>
       </c>
@@ -2019,9 +2026,7 @@
       <c r="Z3" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="AA3" s="3" t="s">
-        <v>66</v>
-      </c>
+      <c r="AA3" s="5"/>
       <c r="AB3" s="3" t="s">
         <v>46</v>
       </c>
@@ -2029,7 +2034,7 @@
         <v>55</v>
       </c>
       <c r="AD3" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AE3" s="3"/>
       <c r="AF3" s="6" t="s">
@@ -2041,14 +2046,14 @@
       <c r="AH3" s="3"/>
       <c r="AI3" s="3"/>
       <c r="AJ3" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AK3" s="6" t="s">
         <v>65</v>
       </c>
       <c r="AL3" s="3"/>
     </row>
-    <row r="4" ht="60" spans="1:38">
+    <row r="4" ht="96" spans="1:38">
       <c r="A4" s="2">
         <v>1258</v>
       </c>
@@ -2113,17 +2118,15 @@
       <c r="Z4" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="AA4" s="2" t="s">
+      <c r="AA4" s="7"/>
+      <c r="AB4" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC4" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AB4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC4" s="2" t="s">
+      <c r="AD4" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="AD4" s="4" t="s">
-        <v>77</v>
       </c>
       <c r="AE4" s="2"/>
       <c r="AF4" s="4" t="s">
@@ -2135,14 +2138,14 @@
       <c r="AH4" s="2"/>
       <c r="AI4" s="2"/>
       <c r="AJ4" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AK4" s="4" t="s">
         <v>74</v>
       </c>
       <c r="AL4" s="2"/>
     </row>
-    <row r="5" ht="83.25" spans="1:38">
+    <row r="5" ht="185.25" spans="1:38">
       <c r="A5" s="3">
         <v>1192</v>
       </c>
@@ -2208,7 +2211,7 @@
         <v>83</v>
       </c>
       <c r="AA5" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AB5" s="3" t="s">
         <v>46</v>
@@ -2229,14 +2232,14 @@
       <c r="AH5" s="3"/>
       <c r="AI5" s="3"/>
       <c r="AJ5" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AK5" s="6" t="s">
         <v>83</v>
       </c>
       <c r="AL5" s="3"/>
     </row>
-    <row r="6" ht="60" spans="1:38">
+    <row r="6" ht="82.5" spans="1:38">
       <c r="A6" s="2">
         <v>1141</v>
       </c>
@@ -2296,13 +2299,13 @@
         <v>55</v>
       </c>
       <c r="Y6" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Z6" s="4" t="s">
         <v>89</v>
       </c>
       <c r="AA6" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AB6" s="2" t="s">
         <v>46</v>
@@ -2323,14 +2326,14 @@
       <c r="AH6" s="2"/>
       <c r="AI6" s="2"/>
       <c r="AJ6" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AK6" s="4" t="s">
         <v>89</v>
       </c>
       <c r="AL6" s="2"/>
     </row>
-    <row r="7" ht="96" spans="1:38">
+    <row r="7" ht="165.75" spans="1:38">
       <c r="A7" s="3">
         <v>1139</v>
       </c>
@@ -2390,13 +2393,13 @@
         <v>55</v>
       </c>
       <c r="Y7" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Z7" s="6" t="s">
         <v>94</v>
       </c>
       <c r="AA7" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AB7" s="3" t="s">
         <v>46</v>
@@ -2417,14 +2420,14 @@
       <c r="AH7" s="3"/>
       <c r="AI7" s="3"/>
       <c r="AJ7" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AK7" s="6" t="s">
         <v>94</v>
       </c>
       <c r="AL7" s="3"/>
     </row>
-    <row r="8" ht="48" spans="1:38">
+    <row r="8" ht="255.75" spans="1:38">
       <c r="A8" s="2">
         <v>1269</v>
       </c>
@@ -2520,7 +2523,7 @@
       </c>
       <c r="AL8" s="2"/>
     </row>
-    <row r="9" ht="24" spans="1:38">
+    <row r="9" ht="72" spans="1:38">
       <c r="A9" s="3">
         <v>1268</v>
       </c>
@@ -2618,7 +2621,7 @@
       </c>
       <c r="AL9" s="3"/>
     </row>
-    <row r="10" ht="60" spans="1:38">
+    <row r="10" ht="235.5" spans="1:38">
       <c r="A10" s="2">
         <v>1267</v>
       </c>
@@ -2716,7 +2719,7 @@
       </c>
       <c r="AL10" s="2"/>
     </row>
-    <row r="11" ht="24" spans="1:38">
+    <row r="11" ht="72" spans="1:38">
       <c r="A11" s="3">
         <v>1266</v>
       </c>
@@ -2812,7 +2815,7 @@
       </c>
       <c r="AL11" s="3"/>
     </row>
-    <row r="12" ht="24" spans="1:38">
+    <row r="12" ht="72" spans="1:38">
       <c r="A12" s="2">
         <v>1265</v>
       </c>
@@ -2878,7 +2881,7 @@
         <v>131</v>
       </c>
       <c r="AA12" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AB12" s="2" t="s">
         <v>46</v>
@@ -2908,7 +2911,7 @@
       </c>
       <c r="AL12" s="2"/>
     </row>
-    <row r="13" ht="33.75" spans="1:38">
+    <row r="13" ht="78.75" spans="1:38">
       <c r="A13" s="3">
         <v>1264</v>
       </c>
@@ -3006,7 +3009,7 @@
       </c>
       <c r="AL13" s="3"/>
     </row>
-    <row r="14" ht="47.25" spans="1:38">
+    <row r="14" ht="195.75" spans="1:38">
       <c r="A14" s="2">
         <v>1262</v>
       </c>
@@ -3078,7 +3081,7 @@
         <v>46</v>
       </c>
       <c r="AC14" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AD14" s="4" t="s">
         <v>146</v>
@@ -3102,7 +3105,7 @@
       </c>
       <c r="AL14" s="2"/>
     </row>
-    <row r="15" ht="35.25" spans="1:38">
+    <row r="15" ht="136.5" spans="1:38">
       <c r="A15" s="3">
         <v>1261</v>
       </c>
@@ -3200,7 +3203,7 @@
       </c>
       <c r="AL15" s="3"/>
     </row>
-    <row r="16" ht="36" spans="1:38">
+    <row r="16" ht="186" spans="1:38">
       <c r="A16" s="2">
         <v>1260</v>
       </c>
@@ -3268,7 +3271,7 @@
         <v>157</v>
       </c>
       <c r="AA16" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AB16" s="2" t="s">
         <v>46</v>
@@ -3298,7 +3301,7 @@
       </c>
       <c r="AL16" s="2"/>
     </row>
-    <row r="17" ht="34.5" spans="1:38">
+    <row r="17" ht="180" spans="1:38">
       <c r="A17" s="3">
         <v>1259</v>
       </c>
@@ -3372,7 +3375,7 @@
         <v>46</v>
       </c>
       <c r="AC17" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AD17" s="6" t="s">
         <v>164</v>
@@ -3396,7 +3399,7 @@
       </c>
       <c r="AL17" s="3"/>
     </row>
-    <row r="18" ht="34.5" spans="1:38">
+    <row r="18" ht="123.75" spans="1:38">
       <c r="A18" s="2">
         <v>1257</v>
       </c>
@@ -3470,7 +3473,7 @@
         <v>170</v>
       </c>
       <c r="AC18" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AD18" s="4" t="s">
         <v>171</v>
@@ -3494,7 +3497,7 @@
       </c>
       <c r="AL18" s="2"/>
     </row>
-    <row r="19" ht="36" spans="1:38">
+    <row r="19" ht="123.75" spans="1:38">
       <c r="A19" s="3">
         <v>1256</v>
       </c>
@@ -3592,7 +3595,7 @@
       </c>
       <c r="AL19" s="3"/>
     </row>
-    <row r="20" ht="24" spans="1:38">
+    <row r="20" ht="123.75" spans="1:38">
       <c r="A20" s="2">
         <v>1255</v>
       </c>
@@ -3690,7 +3693,7 @@
       </c>
       <c r="AL20" s="2"/>
     </row>
-    <row r="21" ht="24" spans="1:38">
+    <row r="21" ht="93.75" spans="1:38">
       <c r="A21" s="3">
         <v>1254</v>
       </c>
@@ -3794,11 +3797,20 @@
     <extLst/>
   </autoFilter>
   <dataValidations count="11">
+    <dataValidation type="list" showErrorMessage="1" errorTitle="输入有误" error="您输入的值不在下拉框列表内。" sqref="M2 M3 M4 M5 M6 M7 M8 M9 M10 M11 M12 M13 M14 M15 M16 M17 M18 M19 M20 M21">
+      <formula1>"代码错误,配置相关,安装部署,安全相关,性能问题,标准规范,测试脚本,设计缺陷,代码改进,其他"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showErrorMessage="1" errorTitle="输入有误" error="您输入的值不在下拉框列表内。" sqref="K2 K3 K4 K5 K6 K7 K8 K9 K10 K11 K12 K13 K14 K15 K16 K17 K18 K19 K20 K21">
+      <formula1>"致命,严重,一般,轻微"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showErrorMessage="1" errorTitle="输入有误" error="您输入的值不在下拉框列表内。" sqref="C2 C3 C4 C5 C6 C7 C8 C9 C10 C11 C12 C13 C14 C15 C16 C17 C18 C19 C20 C21">
+      <formula1>系统数据!$F$1:$F$1</formula1>
+    </dataValidation>
     <dataValidation type="list" showErrorMessage="1" errorTitle="输入有误" error="您输入的值不在下拉框列表内。" sqref="N2 N3 N4 N5 N6 N7 N8 N9 N10 N11 N12 N13 N14 N15 N16 N17 N18 N19 N20 N21">
       <formula1>",全部,Windows,Windows 10,Windows 8,Windows 7,Windows Vista,Windows XP,Windows 2012,Windows 2008,Windows 2003,Windows 2000,Android,IOS,WP8,WP7,Symbian,Linux,FreeBSD,OS X,Unix,其他"</formula1>
     </dataValidation>
-    <dataValidation type="list" showErrorMessage="1" errorTitle="输入有误" error="您输入的值不在下拉框列表内。" sqref="C2 C3 C4 C5 C6 C7 C8 C9 C10 C11 C12 C13 C14 C15 C16 C17 C18 C19 C20 C21">
-      <formula1>系统数据!$F$1:$F$1</formula1>
+    <dataValidation type="list" showErrorMessage="1" errorTitle="输入有误" error="您输入的值不在下拉框列表内。" sqref="L2 L3 L4 L5 L6 L7 L8 L9 L10 L11 L12 L13 L14 L15 L16 L17 L18 L19 L20 L21">
+      <formula1>",紧急,高,中,低"</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" errorTitle="输入有误" error="您输入的值不在下拉框列表内。" sqref="D2 D3 D4 D5 D6 D7 D8 D9 D10 D11 D12 D13 D14 D15 D16 D17 D18 D19 D20 D21">
       <formula1>系统数据!$A$1:$A$1</formula1>
@@ -3811,15 +3823,6 @@
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" errorTitle="输入有误" error="您输入的值不在下拉框列表内。" sqref="F2 F3 F4 F5 F6 F7 F8 F9 F10 F11 F12 F13 F14 F15 F16 F17 F18 F19 F20 F21">
       <formula1>系统数据!$C$1:$C$1</formula1>
-    </dataValidation>
-    <dataValidation type="list" showErrorMessage="1" errorTitle="输入有误" error="您输入的值不在下拉框列表内。" sqref="K2 K3 K4 K5 K6 K7 K8 K9 K10 K11 K12 K13 K14 K15 K16 K17 K18 K19 K20 K21">
-      <formula1>"致命,严重,一般,轻微"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showErrorMessage="1" errorTitle="输入有误" error="您输入的值不在下拉框列表内。" sqref="M2 M3 M4 M5 M6 M7 M8 M9 M10 M11 M12 M13 M14 M15 M16 M17 M18 M19 M20 M21">
-      <formula1>"代码错误,配置相关,安装部署,安全相关,性能问题,标准规范,测试脚本,设计缺陷,代码改进,其他"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showErrorMessage="1" errorTitle="输入有误" error="您输入的值不在下拉框列表内。" sqref="L2 L3 L4 L5 L6 L7 L8 L9 L10 L11 L12 L13 L14 L15 L16 L17 L18 L19 L20 L21">
-      <formula1>",紧急,高,中,低"</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" errorTitle="输入有误" error="您输入的值不在下拉框列表内。" sqref="O2 O3 O4 O5 O6 O7 O8 O9 O10 O11 O12 O13 O14 O15 O16 O17 O18 O19 O20 O21">
       <formula1>",全部,IE系列,IE11,IE10,IE9,IE8,IE7,IE6,chrome,firefox系列,firefox4,firefox3,firefox2,opera系列,opera11,opera10,opera9,safari,傲游,UC,其他"</formula1>
